--- a/RQ2_Results/Underlying_Mechanism_Classification.xlsx
+++ b/RQ2_Results/Underlying_Mechanism_Classification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20412\Desktop\SaFE-APIOpt\RQ2_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B69057-8B32-4821-B361-6E4AD4FA0D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF83B5A-3164-44D8-81AE-27358EA8A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,26 +1043,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,39 +1345,39 @@
   <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.21875" customWidth="1"/>
-    <col min="2" max="2" width="44.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="219.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="219.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1390,11 +1387,11 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1402,9 +1399,9 @@
         <v>5</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1412,9 +1409,9 @@
         <v>7</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1422,9 +1419,9 @@
         <v>37</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1432,9 +1429,9 @@
         <v>11</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -1442,9 +1439,9 @@
         <v>114</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>306</v>
       </c>
@@ -1452,9 +1449,9 @@
         <v>307</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1462,9 +1459,9 @@
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -1472,9 +1469,9 @@
         <v>210</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1482,9 +1479,9 @@
         <v>12</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1492,9 +1489,9 @@
         <v>246</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1502,9 +1499,9 @@
         <v>21</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1512,9 +1509,9 @@
         <v>23</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1522,9 +1519,9 @@
         <v>9</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1532,9 +1529,9 @@
         <v>26</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -1542,93 +1539,93 @@
         <v>104</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
@@ -1638,11 +1635,11 @@
       <c r="C27" s="7">
         <v>3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -1650,9 +1647,9 @@
         <v>46</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1660,9 +1657,9 @@
         <v>48</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1670,9 +1667,9 @@
         <v>50</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1680,9 +1677,9 @@
         <v>52</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -1690,9 +1687,9 @@
         <v>54</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -1700,9 +1697,9 @@
         <v>56</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -1710,9 +1707,9 @@
         <v>46</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -1720,9 +1717,9 @@
         <v>59</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -1730,9 +1727,9 @@
         <v>60</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -1740,9 +1737,9 @@
         <v>61</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
@@ -1750,9 +1747,9 @@
         <v>63</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -1760,9 +1757,9 @@
         <v>65</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -1770,9 +1767,9 @@
         <v>67</v>
       </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1780,9 +1777,9 @@
         <v>69</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>70</v>
       </c>
@@ -1790,9 +1787,9 @@
         <v>71</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -1800,9 +1797,9 @@
         <v>258</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -1810,9 +1807,9 @@
         <v>74</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -1820,9 +1817,9 @@
         <v>46</v>
       </c>
       <c r="C45" s="7"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
@@ -1830,9 +1827,9 @@
         <v>77</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>78</v>
       </c>
@@ -1840,9 +1837,9 @@
         <v>79</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -1850,9 +1847,9 @@
         <v>81</v>
       </c>
       <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
@@ -1860,9 +1857,9 @@
         <v>41</v>
       </c>
       <c r="C49" s="7"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
@@ -1870,9 +1867,9 @@
         <v>84</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -1880,9 +1877,9 @@
         <v>44</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -1890,9 +1887,9 @@
         <v>86</v>
       </c>
       <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -1900,9 +1897,9 @@
         <v>88</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
@@ -1910,9 +1907,9 @@
         <v>90</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -1920,9 +1917,9 @@
         <v>92</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -1930,9 +1927,9 @@
         <v>94</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
@@ -1940,9 +1937,9 @@
         <v>46</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>235</v>
       </c>
@@ -1950,9 +1947,9 @@
         <v>171</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -1960,9 +1957,9 @@
         <v>96</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>97</v>
       </c>
@@ -1970,9 +1967,9 @@
         <v>98</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
@@ -1980,9 +1977,9 @@
         <v>88</v>
       </c>
       <c r="C61" s="7"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
@@ -1990,9 +1987,9 @@
         <v>28</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
@@ -2000,9 +1997,9 @@
         <v>102</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
@@ -2010,9 +2007,9 @@
         <v>196</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>105</v>
       </c>
@@ -2020,9 +2017,9 @@
         <v>106</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
@@ -2030,9 +2027,9 @@
         <v>108</v>
       </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>176</v>
       </c>
@@ -2040,9 +2037,9 @@
         <v>175</v>
       </c>
       <c r="C67" s="7"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
@@ -2050,9 +2047,9 @@
         <v>109</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -2060,9 +2057,9 @@
         <v>111</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>112</v>
       </c>
@@ -2070,9 +2067,9 @@
         <v>113</v>
       </c>
       <c r="C70" s="7"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
@@ -2080,9 +2077,9 @@
         <v>222</v>
       </c>
       <c r="C71" s="7"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
@@ -2090,573 +2087,573 @@
         <v>116</v>
       </c>
       <c r="C72" s="7"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>4</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="7"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="7"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="7"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="7"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="7"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="7"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="7"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="7"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="7"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="7"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="7"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="7"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="7"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="7"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="7"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="7"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="7"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="7"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="7"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="7"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="7"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="7"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="7"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="7"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="7"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="7"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="7"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="7"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="7"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="7"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="7"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="7"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="7"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="7"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="7"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="7"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="7"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="7"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="7"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="7"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="7"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="7"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="7"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="7"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="7"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="7"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="7"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="7"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="7"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="7"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="7"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="5"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="7"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="7"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>181</v>
       </c>
@@ -2666,11 +2663,11 @@
       <c r="C129" s="7">
         <v>5</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>309</v>
       </c>
@@ -2678,9 +2675,9 @@
         <v>310</v>
       </c>
       <c r="C130" s="7"/>
-      <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>147</v>
       </c>
@@ -2688,9 +2685,9 @@
         <v>146</v>
       </c>
       <c r="C131" s="7"/>
-      <c r="D131" s="5"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>177</v>
       </c>
@@ -2698,9 +2695,9 @@
         <v>87</v>
       </c>
       <c r="C132" s="7"/>
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
@@ -2708,9 +2705,9 @@
         <v>201</v>
       </c>
       <c r="C133" s="7"/>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>205</v>
       </c>
@@ -2718,9 +2715,9 @@
         <v>206</v>
       </c>
       <c r="C134" s="7"/>
-      <c r="D134" s="5"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>28</v>
       </c>
@@ -2728,9 +2725,9 @@
         <v>27</v>
       </c>
       <c r="C135" s="7"/>
-      <c r="D135" s="5"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>228</v>
       </c>
@@ -2738,9 +2735,9 @@
         <v>227</v>
       </c>
       <c r="C136" s="7"/>
-      <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>85</v>
       </c>
@@ -2748,9 +2745,9 @@
         <v>241</v>
       </c>
       <c r="C137" s="7"/>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
@@ -2758,9 +2755,9 @@
         <v>245</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>254</v>
       </c>
@@ -2768,9 +2765,9 @@
         <v>253</v>
       </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>289</v>
       </c>
@@ -2778,9 +2775,9 @@
         <v>288</v>
       </c>
       <c r="C140" s="7"/>
-      <c r="D140" s="5"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>123</v>
       </c>
@@ -2788,9 +2785,9 @@
         <v>124</v>
       </c>
       <c r="C141" s="7"/>
-      <c r="D141" s="5"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>125</v>
       </c>
@@ -2798,9 +2795,9 @@
         <v>66</v>
       </c>
       <c r="C142" s="7"/>
-      <c r="D142" s="5"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>127</v>
       </c>
@@ -2808,9 +2805,9 @@
         <v>126</v>
       </c>
       <c r="C143" s="7"/>
-      <c r="D143" s="5"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>81</v>
       </c>
@@ -2818,9 +2815,9 @@
         <v>128</v>
       </c>
       <c r="C144" s="7"/>
-      <c r="D144" s="5"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>129</v>
       </c>
@@ -2828,9 +2825,9 @@
         <v>115</v>
       </c>
       <c r="C145" s="7"/>
-      <c r="D145" s="5"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>134</v>
       </c>
@@ -2838,9 +2835,9 @@
         <v>133</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>305</v>
       </c>
@@ -2848,9 +2845,9 @@
         <v>99</v>
       </c>
       <c r="C147" s="7"/>
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>137</v>
       </c>
@@ -2858,9 +2855,9 @@
         <v>33</v>
       </c>
       <c r="C148" s="7"/>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>140</v>
       </c>
@@ -2868,9 +2865,9 @@
         <v>139</v>
       </c>
       <c r="C149" s="7"/>
-      <c r="D149" s="5"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>141</v>
       </c>
@@ -2878,9 +2875,9 @@
         <v>129</v>
       </c>
       <c r="C150" s="7"/>
-      <c r="D150" s="5"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>129</v>
       </c>
@@ -2888,9 +2885,9 @@
         <v>142</v>
       </c>
       <c r="C151" s="7"/>
-      <c r="D151" s="5"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
@@ -2898,9 +2895,9 @@
         <v>44</v>
       </c>
       <c r="C152" s="7"/>
-      <c r="D152" s="5"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
@@ -2908,9 +2905,9 @@
         <v>8</v>
       </c>
       <c r="C153" s="7"/>
-      <c r="D153" s="5"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>72</v>
       </c>
@@ -2918,9 +2915,9 @@
         <v>143</v>
       </c>
       <c r="C154" s="7"/>
-      <c r="D154" s="5"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>152</v>
       </c>
@@ -2928,9 +2925,9 @@
         <v>151</v>
       </c>
       <c r="C155" s="7"/>
-      <c r="D155" s="5"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>87</v>
       </c>
@@ -2938,9 +2935,9 @@
         <v>50</v>
       </c>
       <c r="C156" s="7"/>
-      <c r="D156" s="5"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>46</v>
       </c>
@@ -2948,9 +2945,9 @@
         <v>94</v>
       </c>
       <c r="C157" s="7"/>
-      <c r="D157" s="5"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -2958,9 +2955,9 @@
         <v>28</v>
       </c>
       <c r="C158" s="7"/>
-      <c r="D158" s="5"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>13</v>
       </c>
@@ -2968,9 +2965,9 @@
         <v>12</v>
       </c>
       <c r="C159" s="7"/>
-      <c r="D159" s="5"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -2978,9 +2975,9 @@
         <v>159</v>
       </c>
       <c r="C160" s="7"/>
-      <c r="D160" s="5"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>27</v>
       </c>
@@ -2988,9 +2985,9 @@
         <v>160</v>
       </c>
       <c r="C161" s="7"/>
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
@@ -2998,9 +2995,9 @@
         <v>161</v>
       </c>
       <c r="C162" s="7"/>
-      <c r="D162" s="5"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
@@ -3008,9 +3005,9 @@
         <v>163</v>
       </c>
       <c r="C163" s="7"/>
-      <c r="D163" s="5"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>168</v>
       </c>
@@ -3018,9 +3015,9 @@
         <v>167</v>
       </c>
       <c r="C164" s="7"/>
-      <c r="D164" s="5"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>172</v>
       </c>
@@ -3028,9 +3025,9 @@
         <v>171</v>
       </c>
       <c r="C165" s="7"/>
-      <c r="D165" s="5"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>173</v>
       </c>
@@ -3038,9 +3035,9 @@
         <v>174</v>
       </c>
       <c r="C166" s="7"/>
-      <c r="D166" s="5"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>179</v>
       </c>
@@ -3048,9 +3045,9 @@
         <v>178</v>
       </c>
       <c r="C167" s="7"/>
-      <c r="D167" s="5"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>41</v>
       </c>
@@ -3058,9 +3055,9 @@
         <v>180</v>
       </c>
       <c r="C168" s="7"/>
-      <c r="D168" s="5"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>183</v>
       </c>
@@ -3068,9 +3065,9 @@
         <v>146</v>
       </c>
       <c r="C169" s="7"/>
-      <c r="D169" s="5"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>64</v>
       </c>
@@ -3078,9 +3075,9 @@
         <v>32</v>
       </c>
       <c r="C170" s="7"/>
-      <c r="D170" s="5"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>190</v>
       </c>
@@ -3088,9 +3085,9 @@
         <v>191</v>
       </c>
       <c r="C171" s="7"/>
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>144</v>
       </c>
@@ -3098,9 +3095,9 @@
         <v>192</v>
       </c>
       <c r="C172" s="7"/>
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>6</v>
       </c>
@@ -3108,9 +3105,9 @@
         <v>193</v>
       </c>
       <c r="C173" s="7"/>
-      <c r="D173" s="5"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>194</v>
       </c>
@@ -3118,9 +3115,9 @@
         <v>83</v>
       </c>
       <c r="C174" s="7"/>
-      <c r="D174" s="5"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>31</v>
       </c>
@@ -3128,9 +3125,9 @@
         <v>144</v>
       </c>
       <c r="C175" s="7"/>
-      <c r="D175" s="5"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>199</v>
       </c>
@@ -3138,9 +3135,9 @@
         <v>31</v>
       </c>
       <c r="C176" s="7"/>
-      <c r="D176" s="5"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>9</v>
       </c>
@@ -3148,9 +3145,9 @@
         <v>200</v>
       </c>
       <c r="C177" s="7"/>
-      <c r="D177" s="5"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -3158,9 +3155,9 @@
         <v>115</v>
       </c>
       <c r="C178" s="7"/>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>144</v>
       </c>
@@ -3168,9 +3165,9 @@
         <v>204</v>
       </c>
       <c r="C179" s="7"/>
-      <c r="D179" s="5"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>41</v>
       </c>
@@ -3178,9 +3175,9 @@
         <v>195</v>
       </c>
       <c r="C180" s="7"/>
-      <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>207</v>
       </c>
@@ -3188,9 +3185,9 @@
         <v>72</v>
       </c>
       <c r="C181" s="7"/>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>66</v>
       </c>
@@ -3198,9 +3195,9 @@
         <v>208</v>
       </c>
       <c r="C182" s="7"/>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>211</v>
       </c>
@@ -3208,9 +3205,9 @@
         <v>4</v>
       </c>
       <c r="C183" s="7"/>
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>213</v>
       </c>
@@ -3218,9 +3215,9 @@
         <v>212</v>
       </c>
       <c r="C184" s="7"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>119</v>
       </c>
@@ -3228,9 +3225,9 @@
         <v>216</v>
       </c>
       <c r="C185" s="7"/>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>218</v>
       </c>
@@ -3238,9 +3235,9 @@
         <v>217</v>
       </c>
       <c r="C186" s="7"/>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>220</v>
       </c>
@@ -3248,9 +3245,9 @@
         <v>219</v>
       </c>
       <c r="C187" s="7"/>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>221</v>
       </c>
@@ -3258,9 +3255,9 @@
         <v>144</v>
       </c>
       <c r="C188" s="7"/>
-      <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>224</v>
       </c>
@@ -3268,9 +3265,9 @@
         <v>199</v>
       </c>
       <c r="C189" s="7"/>
-      <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>226</v>
       </c>
@@ -3278,9 +3275,9 @@
         <v>95</v>
       </c>
       <c r="C190" s="7"/>
-      <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>35</v>
       </c>
@@ -3288,9 +3285,9 @@
         <v>229</v>
       </c>
       <c r="C191" s="7"/>
-      <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>234</v>
       </c>
@@ -3298,9 +3295,9 @@
         <v>233</v>
       </c>
       <c r="C192" s="7"/>
-      <c r="D192" s="5"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>242</v>
       </c>
@@ -3308,9 +3305,9 @@
         <v>243</v>
       </c>
       <c r="C193" s="7"/>
-      <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>249</v>
       </c>
@@ -3318,9 +3315,9 @@
         <v>248</v>
       </c>
       <c r="C194" s="7"/>
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>250</v>
       </c>
@@ -3328,9 +3325,9 @@
         <v>85</v>
       </c>
       <c r="C195" s="7"/>
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>251</v>
       </c>
@@ -3338,9 +3335,9 @@
         <v>3</v>
       </c>
       <c r="C196" s="7"/>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>252</v>
       </c>
@@ -3348,9 +3345,9 @@
         <v>4</v>
       </c>
       <c r="C197" s="7"/>
-      <c r="D197" s="5"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>255</v>
       </c>
@@ -3358,9 +3355,9 @@
         <v>256</v>
       </c>
       <c r="C198" s="7"/>
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>171</v>
       </c>
@@ -3368,9 +3365,9 @@
         <v>257</v>
       </c>
       <c r="C199" s="7"/>
-      <c r="D199" s="5"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>109</v>
       </c>
@@ -3378,9 +3375,9 @@
         <v>231</v>
       </c>
       <c r="C200" s="7"/>
-      <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>265</v>
       </c>
@@ -3388,9 +3385,9 @@
         <v>266</v>
       </c>
       <c r="C201" s="7"/>
-      <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>80</v>
       </c>
@@ -3398,9 +3395,9 @@
         <v>269</v>
       </c>
       <c r="C202" s="7"/>
-      <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>271</v>
       </c>
@@ -3408,9 +3405,9 @@
         <v>270</v>
       </c>
       <c r="C203" s="7"/>
-      <c r="D203" s="5"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>270</v>
       </c>
@@ -3418,9 +3415,9 @@
         <v>272</v>
       </c>
       <c r="C204" s="7"/>
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>19</v>
       </c>
@@ -3428,9 +3425,9 @@
         <v>18</v>
       </c>
       <c r="C205" s="7"/>
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>274</v>
       </c>
@@ -3438,9 +3435,9 @@
         <v>273</v>
       </c>
       <c r="C206" s="7"/>
-      <c r="D206" s="5"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>276</v>
       </c>
@@ -3448,9 +3445,9 @@
         <v>275</v>
       </c>
       <c r="C207" s="7"/>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>23</v>
       </c>
@@ -3458,9 +3455,9 @@
         <v>277</v>
       </c>
       <c r="C208" s="7"/>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>281</v>
       </c>
@@ -3468,9 +3465,9 @@
         <v>280</v>
       </c>
       <c r="C209" s="7"/>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>271</v>
       </c>
@@ -3478,9 +3475,9 @@
         <v>107</v>
       </c>
       <c r="C210" s="7"/>
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="6"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>287</v>
       </c>
@@ -3488,9 +3485,9 @@
         <v>286</v>
       </c>
       <c r="C211" s="7"/>
-      <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="6"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>290</v>
       </c>
@@ -3498,9 +3495,9 @@
         <v>291</v>
       </c>
       <c r="C212" s="7"/>
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="6"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>297</v>
       </c>
@@ -3508,9 +3505,9 @@
         <v>298</v>
       </c>
       <c r="C213" s="7"/>
-      <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>304</v>
       </c>
@@ -3518,7 +3515,7 @@
         <v>303</v>
       </c>
       <c r="C214" s="7"/>
-      <c r="D214" s="5"/>
+      <c r="D214" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/RQ2_Results/Underlying_Mechanism_Classification.xlsx
+++ b/RQ2_Results/Underlying_Mechanism_Classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20412\Desktop\SaFE-APIOpt\RQ2_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF83B5A-3164-44D8-81AE-27358EA8A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE9AAF9-B7F2-4E9C-8BD4-010819B2D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="315">
   <si>
     <t xml:space="preserve">API 1 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,6 +979,14 @@
   </si>
   <si>
     <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy.outer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy.matmul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,10 +1051,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,12 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,26 +1349,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.25" customWidth="1"/>
-    <col min="2" max="2" width="44.25" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="3"/>
+    <col min="1" max="1" width="49.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="219.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="219.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1377,2145 +1382,2145 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>4</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="4">
         <v>5</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C150" s="7"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="7"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="7"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C163" s="7"/>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C165" s="7"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C172" s="7"/>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="7"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C174" s="7"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C176" s="7"/>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C180" s="7"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C182" s="7"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C191" s="7"/>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C192" s="7"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C193" s="7"/>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C195" s="7"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="7"/>
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="7"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C202" s="7"/>
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C203" s="7"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C204" s="7"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="7"/>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C207" s="7"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C211" s="7"/>
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C212" s="7"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C214" s="7"/>
-      <c r="D214" s="6"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
